--- a/原因.xlsx
+++ b/原因.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\adnice-O-F\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="108">
   <si>
     <t>事业部</t>
   </si>
@@ -812,6 +812,10 @@
   </si>
   <si>
     <t>上海基分上升13W，周环比上升14%；近期起量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查收</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1218,11 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1267,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>-0.24537613960343516</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>-0.3271147753705817</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>0.9254690218082896</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>0.26176182145235338</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -2306,7 +2309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>46</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>0.95654816072039683</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>9</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>20.567268176270527</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>17</v>
       </c>
@@ -2607,14 +2610,12 @@
         <v>2.3922197232053519</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C46" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I45">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="vivo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/原因.xlsx
+++ b/原因.xlsx
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2614,6 +2614,12 @@
       <c r="C46" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="D46" s="4">
+        <v>21</v>
+      </c>
+      <c r="E46" s="5">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/原因.xlsx
+++ b/原因.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaocaifeng\Desktop\嗯嗯\adnice-O-F\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$I$45</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -831,14 +836,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,157 +856,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,198 +878,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1227,251 +906,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1482,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,10 +931,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1510,61 +950,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1822,19 +1219,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -1847,7 +1244,7 @@
     <col min="9" max="9" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +1273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1897,17 +1294,17 @@
       </c>
       <c r="G2" s="6">
         <f t="shared" ref="G2:G45" si="0">E2-F2</f>
-        <v>-1153572.03</v>
+        <v>-1153572.0299999998</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2:H45" si="1">G2/F2</f>
-        <v>-0.375829656916022</v>
+        <v>-0.37582965691602238</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1932,13 +1329,13 @@
       </c>
       <c r="H3" s="7">
         <f t="shared" si="1"/>
-        <v>-1.00000530256203</v>
+        <v>-1.0000053025620295</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +1352,7 @@
         <v>-22.62</v>
       </c>
       <c r="F4" s="2">
-        <v>661337.67</v>
+        <v>661337.67000000004</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" si="0"/>
@@ -1963,13 +1360,13 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" si="1"/>
-        <v>-1.00003420340474</v>
+        <v>-1.0000342034047447</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1990,17 +1387,17 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>-631486.58</v>
+        <v>-631486.58000000007</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
-        <v>-0.193275848783112</v>
+        <v>-0.19327584878311233</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2025,13 +1422,13 @@
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>-0.154863474612992</v>
+        <v>-0.15486347461299185</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2052,17 +1449,17 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>-387036.94</v>
+        <v>-387036.93999999994</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>-0.241433105446393</v>
+        <v>-0.24143310544639313</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2079,18 +1476,18 @@
         <v>989997.17</v>
       </c>
       <c r="F8" s="2">
-        <v>1311908.12</v>
+        <v>1311908.1200000001</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>-321910.95</v>
+        <v>-321910.95000000007</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>-0.245376139603435</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
+        <v>-0.24537613960343507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2111,17 +1508,17 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>-232717.91</v>
+        <v>-232717.90999999997</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>-0.508485971171698</v>
+        <v>-0.50848597117169791</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2142,17 +1539,17 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>-226537.19</v>
+        <v>-226537.18999999994</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>-0.0992234484061626</v>
+        <v>-9.9223448406162734E-2</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:9">
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -2183,7 +1580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:9">
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2197,24 +1594,24 @@
         <v>41</v>
       </c>
       <c r="E12" s="2">
-        <v>149914.42</v>
+        <v>149914.42000000001</v>
       </c>
       <c r="F12" s="2">
         <v>370895.31</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>-220980.89</v>
+        <v>-220980.88999999998</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
-        <v>-0.595803948019726</v>
+        <v>-0.59580394801972558</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:9">
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,7 +1625,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="2">
-        <v>66549.6</v>
+        <v>66549.600000000006</v>
       </c>
       <c r="F13" s="2">
         <v>269219.39</v>
@@ -2239,13 +1636,13 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>-0.752805323569004</v>
+        <v>-0.75280532356900443</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:9">
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2266,17 +1663,17 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>-199873.12</v>
+        <v>-199873.12000000011</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
-        <v>-0.0976043008392525</v>
+        <v>-9.7604300839252575E-2</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:9">
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2297,17 +1694,17 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>-176649.6</v>
+        <v>-176649.59999999998</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="1"/>
-        <v>-0.638185270824007</v>
+        <v>-0.63818527082400722</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:9">
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +1735,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -2363,10 +1760,10 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="1"/>
-        <v>-0.264698050889824</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
+        <v>-0.26469805088982351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2391,13 +1788,13 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>-0.857374660126706</v>
+        <v>-0.85737466012670616</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:8">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2418,14 +1815,14 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>-120696.17</v>
+        <v>-120696.16999999998</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>-0.327114775370582</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
+        <v>-0.3271147753705817</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2446,17 +1843,17 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>-119082.52</v>
+        <v>-119082.51999999996</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>-0.348226352398547</v>
+        <v>-0.34822635239854677</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2477,17 +1874,17 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>-113601.4</v>
+        <v>-113601.39999999997</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>-0.214528470815905</v>
+        <v>-0.21452847081590454</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2512,13 +1909,13 @@
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>-0.293929761369975</v>
+        <v>-0.29392976136997495</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2543,13 +1940,13 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>-0.873552712406346</v>
+        <v>-0.87355271240634569</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:9">
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -2580,7 +1977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:9">
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2597,21 +1994,21 @@
         <v>11052.3</v>
       </c>
       <c r="F25" s="2">
-        <v>75021.4</v>
+        <v>75021.399999999994</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="0"/>
-        <v>-63969.1</v>
+        <v>-63969.099999999991</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>-0.852678035867099</v>
+        <v>-0.85267803586709923</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:9">
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2642,7 +2039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,21 +2056,21 @@
         <v>10126</v>
       </c>
       <c r="F27" s="2">
-        <v>65550.99</v>
+        <v>65550.990000000005</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="0"/>
-        <v>-55424.99</v>
+        <v>-55424.990000000005</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>-0.845524834941471</v>
+        <v>-0.84552483494147079</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:9">
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>59</v>
       </c>
@@ -2698,13 +2095,13 @@
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>0.129569592106026</v>
+        <v>0.12956959210602645</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:8">
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -2729,10 +2126,10 @@
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>0.92546902180829</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.92546902180828994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +2146,7 @@
         <v>191501.6</v>
       </c>
       <c r="F30" s="2">
-        <v>74608.07</v>
+        <v>74608.070000000007</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="0"/>
@@ -2757,13 +2154,13 @@
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>1.56676791129968</v>
+        <v>1.5667679112996755</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:8">
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -2784,14 +2181,14 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="0"/>
-        <v>125216.22</v>
+        <v>125216.21999999997</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>0.261761821452353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.26176182145235283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,17 +2209,17 @@
       </c>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
-        <v>125607.2</v>
+        <v>125607.20000000019</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>0.074729497847929</v>
+        <v>7.4729497847928816E-2</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2839,21 +2236,21 @@
         <v>398536.95</v>
       </c>
       <c r="F33" s="2">
-        <v>269283.35</v>
+        <v>269283.34999999998</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>129253.6</v>
+        <v>129253.60000000003</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>0.479991057746422</v>
+        <v>0.47999105774642231</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:9">
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2874,17 +2271,17 @@
       </c>
       <c r="G34" s="6">
         <f t="shared" si="0"/>
-        <v>131991.3</v>
+        <v>131991.29999999993</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.139298495086608</v>
+        <v>0.1392984950866076</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:9">
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2905,17 +2302,17 @@
       </c>
       <c r="G35" s="6">
         <f t="shared" si="0"/>
-        <v>135003.29</v>
+        <v>135003.29000000004</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.164342600394843</v>
+        <v>0.16434260039484361</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:9">
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -2936,17 +2333,17 @@
       </c>
       <c r="G36" s="6">
         <f t="shared" si="0"/>
-        <v>158516.06</v>
+        <v>158516.06000000006</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.255101780206329</v>
+        <v>0.25510178020632968</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:9">
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -2967,17 +2364,17 @@
       </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
-        <v>196152.7</v>
+        <v>196152.69999999995</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.186589076865271</v>
+        <v>0.18658907686527051</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -3002,13 +2399,13 @@
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>119.763933995606</v>
+        <v>119.76393399560608</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:8">
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -3033,10 +2430,10 @@
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.956548160720397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.95654816072039661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -3057,17 +2454,17 @@
       </c>
       <c r="G40" s="6">
         <f t="shared" si="0"/>
-        <v>227561.55</v>
+        <v>227561.55000000002</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.999874335510566</v>
+        <v>0.99987433551056593</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -3088,17 +2485,17 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="0"/>
-        <v>247955.02</v>
+        <v>247955.02000000002</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.173311935212075</v>
+        <v>0.17331193521207497</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:9">
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -3112,24 +2509,24 @@
         <v>99</v>
       </c>
       <c r="E42" s="2">
-        <v>617064.32</v>
+        <v>617064.31999999995</v>
       </c>
       <c r="F42" s="2">
         <v>356424.04</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="0"/>
-        <v>260640.28</v>
+        <v>260640.27999999997</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.731264591468073</v>
+        <v>0.73126459146807266</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:9">
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -3150,17 +2547,17 @@
       </c>
       <c r="G43" s="6">
         <f t="shared" si="0"/>
-        <v>312582.4</v>
+        <v>312582.39999999997</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>10.446525549309</v>
+        <v>10.446525549308973</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -3177,7 +2574,7 @@
         <v>569715.78</v>
       </c>
       <c r="F44" s="2">
-        <v>26415.76</v>
+        <v>26415.759999999998</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="0"/>
@@ -3185,10 +2582,10 @@
       </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>20.5672681762705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>20.567268176270531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -3213,10 +2610,10 @@
       </c>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>2.39221972320535</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
+        <v>2.3922197232053528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C46" s="1" t="s">
         <v>104</v>
       </c>
@@ -3227,14 +2624,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="4:4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D47" s="1">
         <v>34</v>
       </c>
+      <c r="E47" s="2">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/原因.xlsx
+++ b/原因.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaocaifeng\Desktop\嗯嗯\adnice-O-F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\adnice-O-F\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2618,7 +2618,7 @@
         <v>104</v>
       </c>
       <c r="D46" s="1">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2">
         <v>12</v>

--- a/原因.xlsx
+++ b/原因.xlsx
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2618,7 +2618,7 @@
         <v>104</v>
       </c>
       <c r="D46" s="1">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2">
         <v>12</v>
